--- a/biology/Médecine/Méthocarbamol/Méthocarbamol.xlsx
+++ b/biology/Médecine/Méthocarbamol/Méthocarbamol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9thocarbamol</t>
+          <t>Méthocarbamol</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le méthocarbamol est un agent myorelaxant qui s’utilise pour le traitement de douleurs musculo-squelettiques. Il se trouve en combinaison avec des antalgiques tels le paracétamol, l’ibuprofène ou l’acide acétylsalicylique dans des comprimés pour le traitement de la lombalgie[1]. Il est vendu sous le nom commercial Lumirelax en France, Robaxin aux États-Unis et au Canada ou Ortoton en Allemagne. Son efficacité reste incertaine[2] et expose à des effets secondaires[3].
+Le méthocarbamol est un agent myorelaxant qui s’utilise pour le traitement de douleurs musculo-squelettiques. Il se trouve en combinaison avec des antalgiques tels le paracétamol, l’ibuprofène ou l’acide acétylsalicylique dans des comprimés pour le traitement de la lombalgie. Il est vendu sous le nom commercial Lumirelax en France, Robaxin aux États-Unis et au Canada ou Ortoton en Allemagne. Son efficacité reste incertaine et expose à des effets secondaires.
 </t>
         </is>
       </c>
